--- a/MySQL_day05/分析表.xlsx
+++ b/MySQL_day05/分析表.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>完全考虑冗余</t>
+  </si>
   <si>
     <t>交易流水表</t>
   </si>
@@ -95,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,60 +119,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,30 +225,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,45 +248,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +596,60 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +671,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -638,222 +697,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,10 +1241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1255,263 +1254,346 @@
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="6:7">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>43146</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>43146</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>300</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="9">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>43151</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>0</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="3:3">
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="3:7">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="14" customHeight="1" spans="1:7">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="3:7">
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="5">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="14" customHeight="1" spans="1:3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="3:3">
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="15" spans="1:8">
+      <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" ht="14.25" spans="3:7">
+      <c r="C20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="3:7">
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8">
+        <v>200</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:8">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" ht="14.25" spans="3:3">
-      <c r="C20" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="3:3">
-      <c r="C21" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7">
-        <v>200</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F1:G32"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
